--- a/data/trans_dic/P3A_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01487611710477695</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02952582427234698</v>
+        <v>0.02952582427234699</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02653192505475847</v>
@@ -685,7 +685,7 @@
         <v>0.01628275340951497</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06979470994144202</v>
+        <v>0.06979470994144203</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02196041831646571</v>
@@ -697,7 +697,7 @@
         <v>0.01561853007382733</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05190301186076443</v>
+        <v>0.05190301186076442</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007388865387291186</v>
+        <v>0.006154303025000607</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008133320301118392</v>
+        <v>0.007920664297373495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008692323850263676</v>
+        <v>0.0091050289244604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01838763863611746</v>
+        <v>0.01765908236221158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01814686473380543</v>
+        <v>0.01691276766705744</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02684073887687944</v>
+        <v>0.02623669766942396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009790376727672495</v>
+        <v>0.009440483736363048</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05483489611875009</v>
+        <v>0.0558474090021397</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01526282537713058</v>
+        <v>0.0150601032131725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02023143007187548</v>
+        <v>0.01913803764519659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01077327190642927</v>
+        <v>0.01104014939084913</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04201727782444951</v>
+        <v>0.04291291731847341</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02741869569790115</v>
+        <v>0.02622132939682205</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02300893337331416</v>
+        <v>0.0223119183399603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02368145994163152</v>
+        <v>0.02252795713910796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04512763491612554</v>
+        <v>0.0463715222874253</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04101712020971748</v>
+        <v>0.03794221812900461</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05048296098624693</v>
+        <v>0.04951544459142622</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02719435102102597</v>
+        <v>0.02658996027914291</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08614946721607344</v>
+        <v>0.085854728871231</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03014505157087656</v>
+        <v>0.02964674253092363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0348178051124645</v>
+        <v>0.03333257363383969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02162961975744156</v>
+        <v>0.02205927339365782</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06354472624252033</v>
+        <v>0.06328981538431815</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01538707371969552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03024084695387278</v>
+        <v>0.03024084695387279</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01635109148226627</v>
@@ -821,7 +821,7 @@
         <v>0.0206345773904201</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0466077504961544</v>
+        <v>0.04660775049615439</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01617657683059495</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01003327215346576</v>
+        <v>0.01054308942076345</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01722639910866094</v>
+        <v>0.01785974553155736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0088686075874499</v>
+        <v>0.008346763418848557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02184527043154177</v>
+        <v>0.0211288570467006</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009403310936578521</v>
+        <v>0.009929298038099003</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0233385923122826</v>
+        <v>0.02402438061960084</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01154416074673009</v>
+        <v>0.01217518948197709</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03739869665457163</v>
+        <v>0.03829705632846101</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0110802065474364</v>
+        <v>0.01158649144404927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02372296772626806</v>
+        <v>0.02390948388623842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01262526924754906</v>
+        <v>0.01249416320438128</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03315259336550919</v>
+        <v>0.03262044891177612</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02492539259093942</v>
+        <v>0.02529910272802427</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03831485857721113</v>
+        <v>0.03854443265910291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02565054397700279</v>
+        <v>0.02479795112787177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04072148484129679</v>
+        <v>0.04120341262076108</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02607515234011542</v>
+        <v>0.02694437650013468</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04760056607404704</v>
+        <v>0.0477621917736169</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03318772924239709</v>
+        <v>0.03373352375010644</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05671559784742235</v>
+        <v>0.05683572930633847</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02217845201064573</v>
+        <v>0.02235171277244644</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03933077555465569</v>
+        <v>0.04074919760369983</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02573424547756058</v>
+        <v>0.02637754077262229</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04648429191158376</v>
+        <v>0.04642253204260727</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03448042329173436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04512547977241916</v>
+        <v>0.04512547977241917</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02649559718492734</v>
@@ -957,7 +957,7 @@
         <v>0.03988334607919475</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04866294561393095</v>
+        <v>0.04866294561393097</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03467078255938218</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03129365693690363</v>
+        <v>0.03062096894827472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03928949433685294</v>
+        <v>0.04079816036189322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02321567239783577</v>
+        <v>0.02341867652486964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03377569468856652</v>
+        <v>0.03391618246068908</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01848283870222293</v>
+        <v>0.01690357603181778</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02924048797256854</v>
+        <v>0.03007149051093985</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02590760577029149</v>
+        <v>0.02686668869950782</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03822134580088898</v>
+        <v>0.03905256597074967</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02761116418276324</v>
+        <v>0.02695951998140647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03803484033815823</v>
+        <v>0.03878315152258929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02858783030654717</v>
+        <v>0.02868991823395735</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03898898963486817</v>
+        <v>0.03930008712306486</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05490783904979612</v>
+        <v>0.05543070608266781</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07179706103185068</v>
+        <v>0.07328040301801973</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.049693648570723</v>
+        <v>0.04921537969237496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06118702025198598</v>
+        <v>0.0599205175765409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03836292098721823</v>
+        <v>0.03857699106096505</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05827440242220804</v>
+        <v>0.05726211992397362</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05709306381871642</v>
+        <v>0.05777485061835008</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06000580904485245</v>
+        <v>0.05984343423832957</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04310597084958348</v>
+        <v>0.04272982956046083</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05853859035820763</v>
+        <v>0.06021284617740789</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04934019039457445</v>
+        <v>0.05081508332771011</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05673277565105274</v>
+        <v>0.05720276607874183</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09122666658941705</v>
+        <v>0.08930147937645477</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05251192170647451</v>
+        <v>0.05361257637954385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03019710390900164</v>
+        <v>0.02977241744101931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05222528352601292</v>
+        <v>0.05204828184008239</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07221730415411051</v>
+        <v>0.06998628388592459</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07625574913399381</v>
+        <v>0.07545610541740758</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04896748270663194</v>
+        <v>0.05100292102502699</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05913574894423434</v>
+        <v>0.058995802354868</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09201068784288211</v>
+        <v>0.0911637318404076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07121956180236903</v>
+        <v>0.07333112678056575</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04219042467101479</v>
+        <v>0.04415366960126586</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05770927851859573</v>
+        <v>0.05893512469715002</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1539095935045321</v>
+        <v>0.1494729851648691</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1047864760138592</v>
+        <v>0.106149637890608</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06619436924501136</v>
+        <v>0.06776349896842854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08494713096463155</v>
+        <v>0.08676581392432534</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1359487854241296</v>
+        <v>0.1401861811400068</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1371379981354736</v>
+        <v>0.1362462774332767</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09836706103732913</v>
+        <v>0.1019250736032467</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08864937657112032</v>
+        <v>0.08809964648575422</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1394227538231825</v>
+        <v>0.1374776525260625</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1098047480319374</v>
+        <v>0.1134704657149926</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07548911955356155</v>
+        <v>0.0757739625265246</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08049238686563934</v>
+        <v>0.08146160726633855</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02446452926303645</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04485974073291719</v>
+        <v>0.04485974073291718</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03110209623764203</v>
@@ -1241,7 +1241,7 @@
         <v>0.02748130335834124</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05142964956683358</v>
+        <v>0.05142964956683357</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03291566606125403</v>
+        <v>0.03232960209919611</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03090532836847852</v>
+        <v>0.03008907033457631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01893780454810116</v>
+        <v>0.01939182331941529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03778483323346957</v>
+        <v>0.03850195074288579</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02559172142318147</v>
+        <v>0.02557721333212438</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03763902791952115</v>
+        <v>0.03929539456108148</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0239993902911685</v>
+        <v>0.0239638073074097</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05162654306913058</v>
+        <v>0.05167499761786962</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03064602329811296</v>
+        <v>0.03082545627530696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03720215541578609</v>
+        <v>0.03659138341501215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02367942398098148</v>
+        <v>0.02337361963686724</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04735930328341763</v>
+        <v>0.04696721474447901</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04667586173403444</v>
+        <v>0.04602796264557522</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04454496172509926</v>
+        <v>0.04415635702494902</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03001694384688204</v>
+        <v>0.03038378123543686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05209547799275225</v>
+        <v>0.05271464587222813</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03780558806131408</v>
+        <v>0.03744239947968264</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05313804248547027</v>
+        <v>0.05392482945871625</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03693200352781236</v>
+        <v>0.03801952714182782</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.063714504813128</v>
+        <v>0.06425590300987512</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03974626632106495</v>
+        <v>0.0398237977805168</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04719968532554078</v>
+        <v>0.04693612159572304</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03191504415631705</v>
+        <v>0.0318065274244036</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05669360662184046</v>
+        <v>0.05648267293828579</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4316</v>
+        <v>3595</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8482</v>
+        <v>8260</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9765</v>
+        <v>10229</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9159</v>
+        <v>8797</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16710</v>
+        <v>15573</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30033</v>
+        <v>29357</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12293</v>
+        <v>11854</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>34163</v>
+        <v>34794</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>22970</v>
+        <v>22665</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>43736</v>
+        <v>41373</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25630</v>
+        <v>26265</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>47107</v>
+        <v>48111</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16016</v>
+        <v>15317</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23995</v>
+        <v>23269</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26604</v>
+        <v>25308</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22479</v>
+        <v>23099</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37769</v>
+        <v>34938</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56487</v>
+        <v>55404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34146</v>
+        <v>33387</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53672</v>
+        <v>53489</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>45367</v>
+        <v>44617</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>75269</v>
+        <v>72058</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51458</v>
+        <v>52480</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>71243</v>
+        <v>70957</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10815</v>
+        <v>11364</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16831</v>
+        <v>17450</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8021</v>
+        <v>7549</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20974</v>
+        <v>20287</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9935</v>
+        <v>10491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25539</v>
+        <v>26289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11619</v>
+        <v>12254</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41706</v>
+        <v>42708</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23650</v>
+        <v>24730</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49138</v>
+        <v>49525</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24125</v>
+        <v>23875</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>68802</v>
+        <v>67698</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26867</v>
+        <v>27270</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37436</v>
+        <v>37661</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23198</v>
+        <v>22427</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39098</v>
+        <v>39561</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27549</v>
+        <v>28467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>52087</v>
+        <v>52264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33403</v>
+        <v>33952</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>63248</v>
+        <v>63382</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>47338</v>
+        <v>47708</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>81467</v>
+        <v>84405</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>49174</v>
+        <v>50404</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>96469</v>
+        <v>96341</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35099</v>
+        <v>34344</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34776</v>
+        <v>36111</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19124</v>
+        <v>19291</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35346</v>
+        <v>35493</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18350</v>
+        <v>16782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25579</v>
+        <v>26306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19949</v>
+        <v>20688</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40042</v>
+        <v>40913</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>58381</v>
+        <v>57003</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66938</v>
+        <v>68255</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45563</v>
+        <v>45725</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>81648</v>
+        <v>82299</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61584</v>
+        <v>62171</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63549</v>
+        <v>64862</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40936</v>
+        <v>40542</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>64031</v>
+        <v>62706</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38086</v>
+        <v>38299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50978</v>
+        <v>50093</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43963</v>
+        <v>44488</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62865</v>
+        <v>62694</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>91142</v>
+        <v>90347</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>103023</v>
+        <v>105969</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>78637</v>
+        <v>80988</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>118805</v>
+        <v>119790</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40716</v>
+        <v>39857</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26415</v>
+        <v>26968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15301</v>
+        <v>15086</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>50943</v>
+        <v>50770</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24575</v>
+        <v>23816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34524</v>
+        <v>34162</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23979</v>
+        <v>24976</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>53834</v>
+        <v>53707</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>72377</v>
+        <v>71711</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>68069</v>
+        <v>70087</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>42038</v>
+        <v>43995</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>108828</v>
+        <v>111139</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68693</v>
+        <v>66712</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52710</v>
+        <v>53396</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33541</v>
+        <v>34336</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82861</v>
+        <v>84635</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>46263</v>
+        <v>47705</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62087</v>
+        <v>61684</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48170</v>
+        <v>49913</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>80702</v>
+        <v>80201</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>109672</v>
+        <v>108142</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>104947</v>
+        <v>108450</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>75217</v>
+        <v>75501</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>151792</v>
+        <v>153620</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>106316</v>
+        <v>104423</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>105328</v>
+        <v>102546</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>63598</v>
+        <v>65122</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>131498</v>
+        <v>133994</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>84719</v>
+        <v>84671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>133269</v>
+        <v>139134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>84522</v>
+        <v>84396</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>190821</v>
+        <v>191000</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>200436</v>
+        <v>201610</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>258511</v>
+        <v>254266</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>162916</v>
+        <v>160812</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>339868</v>
+        <v>337054</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>150761</v>
+        <v>148668</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>151813</v>
+        <v>150489</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100804</v>
+        <v>102036</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>181302</v>
+        <v>183457</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>125152</v>
+        <v>123950</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>188147</v>
+        <v>190933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>130068</v>
+        <v>133898</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>235500</v>
+        <v>237501</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>259955</v>
+        <v>260462</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>327982</v>
+        <v>326150</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>219578</v>
+        <v>218831</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>406854</v>
+        <v>405340</v>
       </c>
     </row>
     <row r="24">
